--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 20,66</t>
+          <t>10,31; 20,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 21,48</t>
+          <t>10,35; 21,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 9,0</t>
+          <t>-4,23; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,34</t>
+          <t>-1,41; 9,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,39</t>
+          <t>1,03; 12,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 3,19</t>
+          <t>-9,93; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,95</t>
+          <t>5,98; 13,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,45</t>
+          <t>7,37; 15,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 3,4</t>
+          <t>-5,64; 4,23</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,58; 193,19</t>
+          <t>66,75; 182,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,34; 187,6</t>
+          <t>65,87; 188,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 77,48</t>
+          <t>-30,33; 78,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 56,49</t>
+          <t>-6,89; 50,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 72,56</t>
+          <t>3,17; 66,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 17,29</t>
+          <t>-42,76; 20,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 89,48</t>
+          <t>30,7; 88,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,66; 98,69</t>
+          <t>38,37; 99,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 21,49</t>
+          <t>-30,54; 26,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 17,37</t>
+          <t>8,36; 17,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 22,6</t>
+          <t>13,12; 22,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,54</t>
+          <t>-8,04; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,58</t>
+          <t>7,61; 18,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,24</t>
+          <t>6,07; 15,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 6,71</t>
+          <t>-8,32; 5,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,14</t>
+          <t>9,25; 16,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 18,25</t>
+          <t>11,11; 18,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 1,91</t>
+          <t>-6,6; 2,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,94; 119,98</t>
+          <t>41,72; 117,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,36; 152,59</t>
+          <t>66,88; 145,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 11,04</t>
+          <t>-43,78; 9,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 92,09</t>
+          <t>31,66; 95,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,33; 85,84</t>
+          <t>23,71; 84,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 35,66</t>
+          <t>-36,89; 26,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,59; 92,15</t>
+          <t>44,03; 92,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 103,83</t>
+          <t>53,89; 104,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 10,88</t>
+          <t>-32,51; 16,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 24,49</t>
+          <t>14,78; 24,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,21</t>
+          <t>13,08; 22,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,38</t>
+          <t>-5,68; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 14,93</t>
+          <t>4,99; 15,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,73</t>
+          <t>6,96; 16,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -7,59</t>
+          <t>-15,8; -7,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 18,33</t>
+          <t>11,12; 18,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 18,14</t>
+          <t>10,91; 17,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -3,47</t>
+          <t>-9,4; -3,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,79; 191,58</t>
+          <t>84,9; 189,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,33; 174,03</t>
+          <t>71,93; 175,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 27,77</t>
+          <t>-33,21; 20,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,16; 65,25</t>
+          <t>17,54; 66,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 71,35</t>
+          <t>24,16; 73,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -32,52</t>
+          <t>-56,54; -30,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,02; 96,65</t>
+          <t>50,01; 95,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,8; 96,27</t>
+          <t>48,63; 97,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -18,16</t>
+          <t>-42,83; -17,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 22,57</t>
+          <t>11,39; 22,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,98</t>
+          <t>17,27; 28,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,44</t>
+          <t>-8,5; 0,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 13,22</t>
+          <t>1,97; 13,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,62</t>
+          <t>10,49; 21,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -7,25</t>
+          <t>-16,28; -6,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 16,39</t>
+          <t>8,54; 16,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 23,47</t>
+          <t>15,94; 23,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -4,22</t>
+          <t>-10,83; -4,25</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,65; 168,32</t>
+          <t>60,42; 166,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,01; 213,14</t>
+          <t>92,17; 212,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 3,96</t>
+          <t>-46,58; 5,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,76; 57,02</t>
+          <t>6,91; 60,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,19; 89,72</t>
+          <t>35,23; 94,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,41; -29,43</t>
+          <t>-54,46; -26,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,46; 85,26</t>
+          <t>37,4; 87,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68,15; 123,55</t>
+          <t>68,08; 123,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -21,61</t>
+          <t>-47,6; -22,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 13,18</t>
+          <t>0,95; 13,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,67</t>
+          <t>5,95; 18,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,65</t>
+          <t>-11,59; -1,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 6,81</t>
+          <t>-6,03; 6,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 15,79</t>
+          <t>2,69; 14,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -3,72</t>
+          <t>-14,29; -3,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,78</t>
+          <t>-0,77; 8,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,42</t>
+          <t>5,24; 14,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -3,93</t>
+          <t>-10,8; -3,56</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,51; 64,1</t>
+          <t>3,87; 69,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,73; 90,85</t>
+          <t>21,99; 92,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -3,32</t>
+          <t>-43,02; -4,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 26,58</t>
+          <t>-18,81; 23,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,65; 62,09</t>
+          <t>9,35; 58,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -14,54</t>
+          <t>-43,47; -14,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 32,56</t>
+          <t>-2,87; 34,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,47; 65,13</t>
+          <t>19,35; 61,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -16,7</t>
+          <t>-38,2; -15,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 3,63</t>
+          <t>-6,85; 3,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,16</t>
+          <t>-3,59; 7,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -12,68</t>
+          <t>-21,34; -12,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -7,14</t>
+          <t>-16,97; -6,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -2,24</t>
+          <t>-13,34; -2,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -22,61</t>
+          <t>-32,33; -22,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -4,07</t>
+          <t>-11,36; -3,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,3</t>
+          <t>-6,94; 0,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -19,91</t>
+          <t>-26,39; -19,87</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 15,12</t>
+          <t>-23,37; 17,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 31,21</t>
+          <t>-12,09; 31,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,35; -54,4</t>
+          <t>-72,07; -53,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,51; -18,52</t>
+          <t>-38,42; -17,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,49; -5,89</t>
+          <t>-30,16; -5,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,37; -59,15</t>
+          <t>-75,89; -58,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -12,15</t>
+          <t>-31,28; -11,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 0,9</t>
+          <t>-19,0; 2,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-72,5; -59,93</t>
+          <t>-72,41; -59,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,37; 14,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,31; 17,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,98</t>
+          <t>-6,75; -2,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,52; 6,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,74; 10,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -9,47</t>
+          <t>-14,41; -9,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,49; 9,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,92; 13,29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -6,71</t>
+          <t>-9,77; -6,93</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,31; 85,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,72; 101,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -17,46</t>
+          <t>-35,28; -16,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,35; 23,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,08; 38,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -35,72</t>
+          <t>-49,61; -35,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,13; 43,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>42,06; 59,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -30,13</t>
+          <t>-41,33; -30,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 20,73</t>
+          <t>10,11; 20,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 21,45</t>
+          <t>10,71; 21,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,34</t>
+          <t>-4,76; 8,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,91</t>
+          <t>-1,37; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 12,55</t>
+          <t>0,72; 12,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 4,26</t>
+          <t>-10,62; 3,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,69</t>
+          <t>6,26; 13,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 15,45</t>
+          <t>7,3; 15,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,23</t>
+          <t>-5,85; 3,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,75; 182,19</t>
+          <t>65,33; 181,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 188,52</t>
+          <t>67,66; 188,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 78,07</t>
+          <t>-32,83; 72,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 50,48</t>
+          <t>-5,76; 49,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 66,64</t>
+          <t>2,93; 66,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 20,23</t>
+          <t>-45,75; 16,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,7; 88,51</t>
+          <t>32,26; 86,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,37; 99,63</t>
+          <t>37,49; 100,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 26,37</t>
+          <t>-31,26; 23,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,39</t>
+          <t>8,17; 17,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,38</t>
+          <t>13,15; 22,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,37</t>
+          <t>-8,0; 1,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 18,01</t>
+          <t>7,04; 17,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 15,98</t>
+          <t>5,79; 15,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 5,01</t>
+          <t>-8,22; 6,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 16,0</t>
+          <t>9,26; 16,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 18,08</t>
+          <t>11,31; 18,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,71</t>
+          <t>-6,58; 3,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,72; 117,38</t>
+          <t>41,91; 118,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,88; 145,54</t>
+          <t>69,3; 151,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 9,51</t>
+          <t>-42,33; 11,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 95,32</t>
+          <t>30,34; 94,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,71; 84,31</t>
+          <t>24,58; 85,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 26,1</t>
+          <t>-36,36; 30,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,03; 92,57</t>
+          <t>45,5; 91,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,89; 104,62</t>
+          <t>53,86; 104,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 16,33</t>
+          <t>-32,46; 17,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 24,2</t>
+          <t>15,51; 25,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 22,2</t>
+          <t>13,12; 22,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 2,62</t>
+          <t>-5,43; 3,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 15,12</t>
+          <t>5,18; 15,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 16,74</t>
+          <t>6,23; 16,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -7,08</t>
+          <t>-16,22; -7,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,12; 18,14</t>
+          <t>11,52; 18,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 17,89</t>
+          <t>10,98; 18,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -3,62</t>
+          <t>-9,67; -3,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,9; 189,64</t>
+          <t>87,35; 191,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,93; 175,03</t>
+          <t>73,71; 171,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 20,66</t>
+          <t>-33,51; 25,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 66,8</t>
+          <t>17,82; 64,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 73,26</t>
+          <t>22,23; 70,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -30,06</t>
+          <t>-57,25; -31,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,01; 95,78</t>
+          <t>52,77; 102,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,63; 97,01</t>
+          <t>49,44; 95,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; -17,84</t>
+          <t>-43,48; -18,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,39; 22,61</t>
+          <t>12,0; 22,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,27; 28,12</t>
+          <t>16,99; 28,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,72</t>
+          <t>-8,46; 0,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 13,62</t>
+          <t>1,65; 12,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,49; 21,82</t>
+          <t>10,22; 21,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -6,56</t>
+          <t>-16,25; -6,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,71</t>
+          <t>8,58; 16,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,94; 23,37</t>
+          <t>15,84; 23,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -4,25</t>
+          <t>-10,86; -4,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>60,42; 166,47</t>
+          <t>64,56; 167,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,17; 212,46</t>
+          <t>91,63; 211,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 5,58</t>
+          <t>-45,13; 4,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,91; 60,45</t>
+          <t>5,24; 53,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,23; 94,17</t>
+          <t>34,42; 91,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,46; -26,44</t>
+          <t>-54,66; -26,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,4; 87,89</t>
+          <t>37,46; 84,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68,08; 123,2</t>
+          <t>67,06; 122,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,6; -22,55</t>
+          <t>-47,55; -22,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,87</t>
+          <t>0,74; 13,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,24</t>
+          <t>5,42; 17,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -1,19</t>
+          <t>-11,7; -0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,07</t>
+          <t>-5,92; 6,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 14,84</t>
+          <t>2,76; 15,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,29; -3,59</t>
+          <t>-14,02; -3,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,32</t>
+          <t>-0,81; 8,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,7</t>
+          <t>5,83; 14,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; -3,56</t>
+          <t>-11,14; -3,87</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,87; 69,28</t>
+          <t>3,32; 72,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,99; 92,5</t>
+          <t>20,53; 89,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -4,68</t>
+          <t>-43,61; -4,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 23,23</t>
+          <t>-18,78; 24,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,35; 58,11</t>
+          <t>8,08; 58,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -14,07</t>
+          <t>-42,32; -13,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 34,17</t>
+          <t>-2,78; 34,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,35; 61,2</t>
+          <t>19,83; 61,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,2; -15,1</t>
+          <t>-38,58; -15,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,87</t>
+          <t>-7,11; 3,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,22</t>
+          <t>-3,17; 7,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -12,61</t>
+          <t>-21,31; -13,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -6,66</t>
+          <t>-17,1; -7,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -2,09</t>
+          <t>-12,47; -1,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -22,66</t>
+          <t>-32,63; -22,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -3,69</t>
+          <t>-11,64; -3,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,67</t>
+          <t>-6,99; 0,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,39; -19,87</t>
+          <t>-26,69; -19,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 17,03</t>
+          <t>-24,3; 14,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 31,08</t>
+          <t>-10,6; 31,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,07; -53,52</t>
+          <t>-71,72; -54,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,42; -17,23</t>
+          <t>-38,69; -18,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -5,54</t>
+          <t>-29,18; -5,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-75,89; -58,49</t>
+          <t>-76,36; -58,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -11,19</t>
+          <t>-31,39; -11,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 2,01</t>
+          <t>-18,83; 1,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-72,41; -59,53</t>
+          <t>-71,88; -59,47</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,71</t>
+          <t>10,59; 15,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,57</t>
+          <t>13,6; 18,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -2,83</t>
+          <t>-6,58; -2,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,06</t>
+          <t>1,61; 5,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,18</t>
+          <t>5,67; 10,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -9,71</t>
+          <t>-14,03; -9,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,64</t>
+          <t>6,46; 9,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,29</t>
+          <t>9,98; 13,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,93</t>
+          <t>-9,77; -6,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>54,31; 85,81</t>
+          <t>55,94; 88,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>69,72; 101,54</t>
+          <t>71,46; 107,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,28; -16,22</t>
+          <t>-34,99; -15,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,43</t>
+          <t>5,65; 22,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,08; 38,01</t>
+          <t>19,61; 37,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,61; -35,9</t>
+          <t>-49,06; -35,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,13; 43,57</t>
+          <t>26,74; 42,93</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>42,06; 59,64</t>
+          <t>41,86; 58,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -30,62</t>
+          <t>-41,2; -30,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 20,46</t>
+          <t>9,85; 20,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 21,14</t>
+          <t>10,45; 21,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 8,66</t>
+          <t>-5,53; 9,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 9,36</t>
+          <t>-0,99; 10,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 12,57</t>
+          <t>0,85; 13,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 3,09</t>
+          <t>-10,27; 3,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,5</t>
+          <t>6,07; 13,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 15,81</t>
+          <t>7,2; 15,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,64</t>
+          <t>-5,88; 3,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,33; 181,34</t>
+          <t>66,58; 193,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,66; 188,0</t>
+          <t>65,34; 187,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 72,54</t>
+          <t>-37,07; 77,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 49,45</t>
+          <t>-4,23; 56,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 66,42</t>
+          <t>3,69; 72,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 16,8</t>
+          <t>-45,63; 17,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,26; 86,09</t>
+          <t>32,02; 89,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,49; 100,77</t>
+          <t>38,66; 98,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 23,43</t>
+          <t>-32,15; 21,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,64</t>
+          <t>8,05; 17,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 22,23</t>
+          <t>12,93; 22,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 1,7</t>
+          <t>-8,24; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 17,61</t>
+          <t>6,88; 17,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 15,98</t>
+          <t>5,61; 16,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 6,01</t>
+          <t>-8,51; 6,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 16,08</t>
+          <t>9,13; 16,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,11</t>
+          <t>11,26; 18,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,01</t>
+          <t>-6,59; 1,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,91; 118,6</t>
+          <t>43,94; 119,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,3; 151,51</t>
+          <t>67,36; 152,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 11,29</t>
+          <t>-43,59; 11,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 94,37</t>
+          <t>29,11; 92,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 85,31</t>
+          <t>23,33; 85,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 30,7</t>
+          <t>-37,79; 35,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,5; 91,36</t>
+          <t>43,59; 92,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,86; 104,23</t>
+          <t>54,12; 103,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 17,26</t>
+          <t>-33,83; 10,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,09</t>
+          <t>15,03; 24,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,24</t>
+          <t>13,07; 22,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,1</t>
+          <t>-5,24; 3,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 15,05</t>
+          <t>5,16; 14,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 16,3</t>
+          <t>6,62; 16,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -7,2</t>
+          <t>-15,94; -7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,65</t>
+          <t>10,86; 18,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 18,02</t>
+          <t>11,02; 18,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -3,6</t>
+          <t>-9,41; -3,47</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,35; 191,86</t>
+          <t>86,79; 191,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,71; 171,17</t>
+          <t>74,33; 174,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 25,4</t>
+          <t>-30,82; 27,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,82; 64,94</t>
+          <t>18,16; 65,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,23; 70,89</t>
+          <t>23,11; 71,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,25; -31,34</t>
+          <t>-56,76; -32,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,77; 102,05</t>
+          <t>48,02; 96,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,44; 95,58</t>
+          <t>49,8; 96,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,48; -18,7</t>
+          <t>-43,38; -18,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 22,7</t>
+          <t>12,51; 22,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 28,02</t>
+          <t>17,23; 27,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,58</t>
+          <t>-8,57; 0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,65</t>
+          <t>1,79; 13,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 21,32</t>
+          <t>10,39; 21,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -6,71</t>
+          <t>-16,29; -7,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,31</t>
+          <t>8,44; 16,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,61</t>
+          <t>15,97; 23,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -4,37</t>
+          <t>-11,06; -4,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>64,56; 167,81</t>
+          <t>66,65; 168,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>91,63; 211,17</t>
+          <t>93,01; 213,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 4,14</t>
+          <t>-45,74; 3,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 53,42</t>
+          <t>5,76; 57,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,42; 91,42</t>
+          <t>34,19; 89,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,66; -26,75</t>
+          <t>-55,41; -29,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,46; 84,0</t>
+          <t>36,46; 85,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,06; 122,21</t>
+          <t>68,15; 123,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -22,04</t>
+          <t>-47,55; -21,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 13,89</t>
+          <t>0,44; 13,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 17,69</t>
+          <t>5,54; 17,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -0,88</t>
+          <t>-11,0; -0,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,38</t>
+          <t>-5,78; 6,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,17</t>
+          <t>1,96; 15,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -3,62</t>
+          <t>-13,8; -3,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 8,21</t>
+          <t>-1,31; 7,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 14,78</t>
+          <t>5,63; 15,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -3,87</t>
+          <t>-11,29; -3,93</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,32; 72,35</t>
+          <t>1,51; 64,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,53; 89,07</t>
+          <t>20,73; 90,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,61; -4,51</t>
+          <t>-42,09; -3,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 24,78</t>
+          <t>-18,4; 26,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,08; 58,12</t>
+          <t>5,65; 62,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -13,6</t>
+          <t>-42,68; -14,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 34,02</t>
+          <t>-4,98; 32,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,83; 61,37</t>
+          <t>19,47; 65,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,58; -15,86</t>
+          <t>-38,88; -16,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,58</t>
+          <t>-7,6; 3,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,5</t>
+          <t>-3,39; 7,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,31; -13,08</t>
+          <t>-21,22; -12,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -7,09</t>
+          <t>-17,21; -7,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -1,73</t>
+          <t>-12,92; -2,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -22,46</t>
+          <t>-32,66; -22,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -3,86</t>
+          <t>-11,63; -4,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,62</t>
+          <t>-6,91; 0,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,69; -19,53</t>
+          <t>-26,94; -19,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 14,74</t>
+          <t>-25,56; 15,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 31,65</t>
+          <t>-11,36; 31,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,72; -54,58</t>
+          <t>-72,35; -54,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,69; -18,0</t>
+          <t>-39,51; -18,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -5,06</t>
+          <t>-29,49; -5,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,36; -58,38</t>
+          <t>-76,37; -59,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,39; -11,38</t>
+          <t>-31,47; -12,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 1,93</t>
+          <t>-18,6; 0,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-71,88; -59,47</t>
+          <t>-72,5; -59,93</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,02</t>
+          <t>10,5; 14,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,07</t>
+          <t>13,03; 17,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,71</t>
+          <t>-6,88; -2,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,97</t>
+          <t>1,62; 6,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,1</t>
+          <t>5,67; 10,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -9,46</t>
+          <t>-14,28; -9,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,56</t>
+          <t>6,64; 9,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,15</t>
+          <t>9,96; 13,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,71</t>
+          <t>-9,91; -6,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>55,94; 88,94</t>
+          <t>54,05; 86,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>71,46; 107,05</t>
+          <t>68,16; 103,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -15,7</t>
+          <t>-36,14; -17,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,65; 22,2</t>
+          <t>5,37; 22,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,61; 37,75</t>
+          <t>19,59; 37,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -35,46</t>
+          <t>-49,8; -35,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>26,74; 42,93</t>
+          <t>27,52; 42,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,86; 58,72</t>
+          <t>41,99; 58,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -30,23</t>
+          <t>-41,29; -30,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,66</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 9,0</t>
+          <t>-6,56; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 3,19</t>
+          <t>-9,75; 4,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 3,4</t>
+          <t>-6,3; 3,27</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,65%</t>
+          <t>-12,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-9,63%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 77,48</t>
+          <t>-44,34; 64,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 17,29</t>
+          <t>-42,24; 26,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 21,49</t>
+          <t>-34,41; 20,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,54</t>
+          <t>-8,61; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 6,71</t>
+          <t>-7,32; 31,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 1,91</t>
+          <t>-5,79; 21,33</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,89%</t>
+          <t>-23,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 11,04</t>
+          <t>-45,43; 8,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 35,66</t>
+          <t>-34,01; 160,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 10,88</t>
+          <t>-29,73; 112,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>-6,96</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,38</t>
+          <t>-5,44; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -7,59</t>
+          <t>-16,97; -7,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -3,47</t>
+          <t>-10,01; -3,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,31%</t>
+          <t>-47,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-34,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 27,77</t>
+          <t>-31,75; 26,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -32,52</t>
+          <t>-61,12; -34,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -18,16</t>
+          <t>-46,75; -19,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-9,68</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,44</t>
+          <t>-14,09; -1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -7,25</t>
+          <t>-16,44; -7,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -4,22</t>
+          <t>-16,0; -6,04</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,63%</t>
+          <t>-42,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-45,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-45,78%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 3,96</t>
+          <t>-74,89; -10,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,41; -29,43</t>
+          <t>-56,36; -31,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -21,61</t>
+          <t>-69,75; -30,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-7,64</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,65</t>
+          <t>-11,11; -0,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -3,72</t>
+          <t>-14,04; -3,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -3,93</t>
+          <t>-11,37; -4,13</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,45%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-30,29%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-28,35%</t>
+          <t>-29,14%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -3,32</t>
+          <t>-42,84; -4,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -14,54</t>
+          <t>-43,31; -15,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -16,7</t>
+          <t>-39,58; -17,52</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,03</t>
+          <t>-13,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-13,73</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-26,98</t>
+          <t>-32,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-22,68</t>
+          <t>-23,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 3,63</t>
+          <t>-8,17; 6,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,16</t>
+          <t>-1,41; 13,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -12,68</t>
+          <t>-19,09; -8,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -7,14</t>
+          <t>-20,69; -7,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -2,24</t>
+          <t>-15,61; -2,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -22,61</t>
+          <t>-42,45; -26,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -4,07</t>
+          <t>-12,6; -2,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,3</t>
+          <t>-6,92; 2,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -19,91</t>
+          <t>-30,11; -19,86</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-64,15%</t>
+          <t>-57,82%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>-33,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-65,52%</t>
+          <t>-80,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-21,99%</t>
+          <t>-23,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>-6,63%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-64,84%</t>
+          <t>-73,39%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 15,12</t>
+          <t>-29,97; 31,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 31,21</t>
+          <t>-6,88; 64,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,35; -54,4</t>
+          <t>-69,31; -41,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,51; -18,52</t>
+          <t>-47,9; -18,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,49; -5,89</t>
+          <t>-36,0; -6,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,37; -59,15</t>
+          <t>-92,51; -67,99</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -12,15</t>
+          <t>-36,27; -8,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 0,9</t>
+          <t>-19,68; 9,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-72,5; -59,93</t>
+          <t>-86,36; -63,77</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>15,42</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-22,39</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-22,4</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-22,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>-12,56; 4,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>-11,23; 4,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,98</t>
+          <t>-29,05; -15,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>-17,72; -2,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>-13,26; 1,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -9,47</t>
+          <t>-28,67; -15,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>-13,32; -1,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>-10,66; 0,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -6,71</t>
+          <t>-27,07; -17,85</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>-71,85%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>-25,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>-14,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-42,29%</t>
+          <t>-53,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>-13,08%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-35,98%</t>
+          <t>-59,97%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-35,84; 17,14</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; 17,11</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-80,39; -57,77</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-39,16; -8,35</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; 5,0</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-61,5; -42,72</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; -4,48</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,07; 2,24</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-65,95; -52,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>12,54</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,42</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-11,15</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>11,62</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-8,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 14,8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 17,53</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -3,94</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 6,09</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 10,15</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; -5,76</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 9,61</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 13,08</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; -5,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>85,28%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-32,9%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-40,07%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>35,25%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>50,48%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-37,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>54,05; 86,69</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>68,16; 103,49</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-36,14; -17,46</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-48,14; -23,48</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>5,37; 22,54</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>19,59; 37,85</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-49,8; -35,72</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-50,32; -20,26</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>27,52; 42,98</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>41,99; 58,88</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; -30,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-44,96; -24,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P71_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 20,66</t>
+          <t>10,45; 20,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 21,48</t>
+          <t>10,62; 21,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 7,5</t>
+          <t>-6,03; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,34</t>
+          <t>-1,9; 10,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,39</t>
+          <t>1,24; 11,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 4,89</t>
+          <t>-9,85; 4,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,95</t>
+          <t>6,33; 13,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,45</t>
+          <t>7,66; 15,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 3,27</t>
+          <t>-6,74; 3,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,58; 193,19</t>
+          <t>67,07; 186,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,34; 187,6</t>
+          <t>65,71; 193,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 64,69</t>
+          <t>-40,55; 54,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 56,49</t>
+          <t>-7,48; 53,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 72,56</t>
+          <t>4,29; 63,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 26,71</t>
+          <t>-42,27; 20,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 89,48</t>
+          <t>33,54; 87,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,66; 98,69</t>
+          <t>40,2; 100,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 20,7</t>
+          <t>-36,33; 23,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 17,37</t>
+          <t>7,92; 17,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 22,6</t>
+          <t>12,71; 22,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,2</t>
+          <t>-8,35; 1,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,58</t>
+          <t>6,86; 17,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,24</t>
+          <t>5,36; 15,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 31,01</t>
+          <t>-7,35; 30,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,14</t>
+          <t>9,51; 16,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 18,25</t>
+          <t>11,19; 17,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 21,33</t>
+          <t>-5,37; 21,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,94; 119,98</t>
+          <t>40,72; 115,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,36; 152,59</t>
+          <t>64,97; 148,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 8,37</t>
+          <t>-45,63; 6,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 92,09</t>
+          <t>28,56; 94,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,33; 85,84</t>
+          <t>22,68; 85,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 160,98</t>
+          <t>-33,76; 159,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,59; 92,15</t>
+          <t>44,7; 93,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 103,83</t>
+          <t>53,05; 102,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 112,95</t>
+          <t>-27,94; 126,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 24,49</t>
+          <t>15,36; 24,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,21</t>
+          <t>12,96; 22,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 3,19</t>
+          <t>-5,66; 3,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 14,93</t>
+          <t>5,03; 15,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,73</t>
+          <t>6,45; 16,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -7,91</t>
+          <t>-16,79; -7,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 18,33</t>
+          <t>11,49; 18,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 18,14</t>
+          <t>10,82; 17,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -3,82</t>
+          <t>-10,36; -3,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,79; 191,58</t>
+          <t>89,88; 194,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,33; 174,03</t>
+          <t>74,37; 174,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 26,1</t>
+          <t>-33,26; 23,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,16; 65,25</t>
+          <t>17,57; 66,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 71,35</t>
+          <t>22,34; 73,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,12; -34,95</t>
+          <t>-62,76; -34,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,02; 96,65</t>
+          <t>51,52; 97,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,8; 96,27</t>
+          <t>48,4; 95,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,75; -19,78</t>
+          <t>-47,81; -19,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 22,57</t>
+          <t>12,44; 22,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,98</t>
+          <t>17,62; 28,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,09; -1,52</t>
+          <t>-14,17; -1,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 13,22</t>
+          <t>1,35; 13,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,62</t>
+          <t>10,53; 21,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -7,62</t>
+          <t>-17,02; -7,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 16,39</t>
+          <t>8,35; 16,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 23,47</t>
+          <t>15,54; 23,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -6,04</t>
+          <t>-15,6; -6,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>66,65; 168,32</t>
+          <t>67,31; 168,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,01; 213,14</t>
+          <t>92,88; 207,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,89; -10,21</t>
+          <t>-74,25; -10,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,76; 57,02</t>
+          <t>4,37; 57,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,19; 89,72</t>
+          <t>36,05; 91,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,36; -31,79</t>
+          <t>-56,43; -30,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,46; 85,26</t>
+          <t>36,42; 84,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68,15; 123,55</t>
+          <t>66,59; 122,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,75; -30,32</t>
+          <t>-67,81; -30,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 13,18</t>
+          <t>1,1; 13,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,67</t>
+          <t>5,33; 17,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -0,89</t>
+          <t>-11,75; -0,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 6,81</t>
+          <t>-5,54; 6,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 15,79</t>
+          <t>3,05; 16,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -3,92</t>
+          <t>-14,65; -3,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,78</t>
+          <t>-0,9; 8,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,42</t>
+          <t>5,82; 14,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -4,13</t>
+          <t>-11,41; -3,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,51; 64,1</t>
+          <t>3,52; 65,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,73; 90,85</t>
+          <t>20,17; 86,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,84; -4,48</t>
+          <t>-42,84; -4,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 26,58</t>
+          <t>-17,31; 25,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,65; 62,09</t>
+          <t>8,62; 64,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,31; -15,8</t>
+          <t>-44,0; -14,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 32,56</t>
+          <t>-3,87; 32,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,47; 65,13</t>
+          <t>19,99; 62,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -17,52</t>
+          <t>-39,48; -16,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 6,13</t>
+          <t>-7,37; 7,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 13,05</t>
+          <t>-1,09; 13,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -8,45</t>
+          <t>-19,02; -7,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -7,04</t>
+          <t>-20,71; -6,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -2,45</t>
+          <t>-15,6; -2,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-42,45; -26,46</t>
+          <t>-42,29; -26,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,4</t>
+          <t>-12,94; -2,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,91</t>
+          <t>-7,26; 2,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -19,86</t>
+          <t>-30,68; -19,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 31,62</t>
+          <t>-28,33; 37,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 64,37</t>
+          <t>-4,1; 64,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,31; -41,63</t>
+          <t>-69,95; -40,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,9; -18,91</t>
+          <t>-47,08; -17,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -6,09</t>
+          <t>-36,08; -5,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-92,51; -67,99</t>
+          <t>-93,53; -67,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -8,12</t>
+          <t>-36,43; -7,68</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 9,94</t>
+          <t>-20,61; 8,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -63,77</t>
+          <t>-87,28; -64,3</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 4,53</t>
+          <t>-12,85; 4,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 4,76</t>
+          <t>-11,5; 5,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -15,8</t>
+          <t>-29,3; -15,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -2,65</t>
+          <t>-18,8; -3,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 1,91</t>
+          <t>-14,67; 1,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,67; -15,78</t>
+          <t>-29,04; -15,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -1,58</t>
+          <t>-13,97; -2,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 0,79</t>
+          <t>-10,43; 1,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -17,85</t>
+          <t>-27,23; -17,71</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 17,14</t>
+          <t>-36,83; 18,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 17,11</t>
+          <t>-31,61; 20,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-80,39; -57,77</t>
+          <t>-80,86; -59,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,16; -8,35</t>
+          <t>-40,37; -8,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 5,0</t>
+          <t>-31,61; 3,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,5; -42,72</t>
+          <t>-62,45; -43,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -4,48</t>
+          <t>-33,85; -5,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 2,24</t>
+          <t>-26,24; 4,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,95; -52,48</t>
+          <t>-66,45; -51,84</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,51; 14,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,3; 17,53</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -3,94</t>
+          <t>-8,92; -4,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,48; 6,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,86; 10,37</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -5,76</t>
+          <t>-14,21; -5,86</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,42; 9,65</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,91; 13,22</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -5,66</t>
+          <t>-10,67; -5,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,41; 84,54</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,88; 103,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -23,48</t>
+          <t>-47,77; -23,5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,04; 22,74</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,02; 38,58</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-50,32; -20,26</t>
+          <t>-49,98; -21,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,03; 43,52</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>41,19; 59,59</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,96; -24,1</t>
+          <t>-44,86; -23,19</t>
         </is>
       </c>
     </row>
